--- a/templates/Template.xlsx
+++ b/templates/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gallegod\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\Proyectos\react\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4FD1B-3B7D-4BAE-A9A4-C19CA19486D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1656BB-E94C-4CFE-89D2-48632494899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68B75461-FBA2-451E-B4AC-976356F7AC83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68B75461-FBA2-451E-B4AC-976356F7AC83}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -170,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00;\-0.00;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1411,13 +1412,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1948,9 +1960,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,42 +1997,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="77" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2077,35 +2050,178 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2115,6 +2231,78 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2123,185 +2311,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="19" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,6 +2322,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3215,7 +3230,7 @@
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <global>
     <keyFlags>
       <key name="_Self">
@@ -3597,106 +3612,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54B947D-DAE4-490A-B24F-5CF60CD59424}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="1"/>
+    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="e" vm="1">
+    <row r="1" spans="1:12">
+      <c r="A1" s="175" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="190"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="193"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="193"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="193"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="177"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="180"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="180"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="180"/>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="182"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="187"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="181" t="s">
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="174"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="182"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="147" t="s">
         <v>30</v>
       </c>
@@ -3715,16 +3730,16 @@
       <c r="H6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="187"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="181" t="s">
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="174"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="182"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="147" t="s">
         <v>31</v>
       </c>
@@ -3743,26 +3758,26 @@
       <c r="H7" s="4">
         <v>0.3</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="187"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="185"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="172"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
@@ -3800,7 +3815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="22">
         <v>1</v>
       </c>
@@ -3818,7 +3833,7 @@
         <f>IF(Parcial_3!BI9="","",Parcial_3!BI9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="156">
+      <c r="G10" s="155">
         <f>IFERROR(AVERAGE(D10:F10),"")</f>
         <v>0</v>
       </c>
@@ -3838,12 +3853,12 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="153" t="str">
-        <f>IF(I10="Ord A", IFERROR(IF((AVERAGE(D10:F10)*0.5 + J10*0.5)&lt;7, "EXTRA", AVERAGE(D10:F10)*0.5 + J10*0.5), "EXTRA"), "")</f>
+        <f>IF(I10="Ord A", IFERROR(IF((AVERAGE(D10:F10)*0.5 + J10*0.5)&lt;6, "EXTRA", AVERAGE(D10:F10)*0.5 + J10*0.5), "EXTRA"), "")</f>
         <v/>
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="26">
         <v>2</v>
       </c>
@@ -3861,7 +3876,7 @@
         <f>IF(Parcial_3!BI10="","",Parcial_3!BI10)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="157">
+      <c r="G11" s="156">
         <f t="shared" ref="G11:G48" si="0">IFERROR(AVERAGE(D11:F11),"")</f>
         <v>0</v>
       </c>
@@ -3881,12 +3896,12 @@
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="153" t="str">
-        <f t="shared" ref="K11:K54" si="2">IF(I11="Ord A", IFERROR(IF((AVERAGE(D11:F11)*0.5 + J11*0.5)&lt;7, "EXTRA", AVERAGE(D11:F11)*0.5 + J11*0.5), "EXTRA"), "")</f>
+        <f t="shared" ref="K11:K54" si="2">IF(I11="Ord A", IFERROR(IF((AVERAGE(D11:F11)*0.5 + J11*0.5)&lt;6, "EXTRA", AVERAGE(D11:F11)*0.5 + J11*0.5), "EXTRA"), "")</f>
         <v/>
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="26">
         <v>3</v>
       </c>
@@ -3904,7 +3919,7 @@
         <f>IF(Parcial_3!BI11="","",Parcial_3!BI11)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="157">
+      <c r="G12" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3929,7 +3944,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="26">
         <v>4</v>
       </c>
@@ -3947,7 +3962,7 @@
         <f>IF(Parcial_3!BI12="","",Parcial_3!BI12)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="157">
+      <c r="G13" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3972,7 +3987,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="29">
         <v>5</v>
       </c>
@@ -3990,7 +4005,7 @@
         <f>IF(Parcial_3!BI13="","",Parcial_3!BI13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="158">
+      <c r="G14" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4015,7 +4030,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" thickTop="1">
       <c r="A15" s="22">
         <v>6</v>
       </c>
@@ -4033,7 +4048,7 @@
         <f>IF(Parcial_3!BI14="","",Parcial_3!BI14)</f>
         <v>0</v>
       </c>
-      <c r="G15" s="156">
+      <c r="G15" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4058,7 +4073,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="26">
         <v>7</v>
       </c>
@@ -4076,7 +4091,7 @@
         <f>IF(Parcial_3!BI15="","",Parcial_3!BI15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="157">
+      <c r="G16" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4101,7 +4116,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="26">
         <v>8</v>
       </c>
@@ -4119,7 +4134,7 @@
         <f>IF(Parcial_3!BI16="","",Parcial_3!BI16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="157">
+      <c r="G17" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4144,7 +4159,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="26">
         <v>9</v>
       </c>
@@ -4162,7 +4177,7 @@
         <f>IF(Parcial_3!BI17="","",Parcial_3!BI17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="157">
+      <c r="G18" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4187,7 +4202,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="29">
         <v>10</v>
       </c>
@@ -4205,7 +4220,7 @@
         <f>IF(Parcial_3!BI18="","",Parcial_3!BI18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="158">
+      <c r="G19" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4230,7 +4245,7 @@
       </c>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" thickTop="1">
       <c r="A20" s="22">
         <v>11</v>
       </c>
@@ -4248,7 +4263,7 @@
         <f>IF(Parcial_3!BI19="","",Parcial_3!BI19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="156">
+      <c r="G20" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4273,7 +4288,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="26">
         <v>12</v>
       </c>
@@ -4291,7 +4306,7 @@
         <f>IF(Parcial_3!BI20="","",Parcial_3!BI20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="157">
+      <c r="G21" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4316,7 +4331,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="26">
         <v>13</v>
       </c>
@@ -4334,7 +4349,7 @@
         <f>IF(Parcial_3!BI21="","",Parcial_3!BI21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="157">
+      <c r="G22" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4359,7 +4374,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="26">
         <v>14</v>
       </c>
@@ -4377,7 +4392,7 @@
         <f>IF(Parcial_3!BI22="","",Parcial_3!BI22)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="157">
+      <c r="G23" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4402,7 +4417,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="29">
         <v>15</v>
       </c>
@@ -4420,7 +4435,7 @@
         <f>IF(Parcial_3!BI23="","",Parcial_3!BI23)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="158">
+      <c r="G24" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4445,7 +4460,7 @@
       </c>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" thickTop="1">
       <c r="A25" s="22">
         <v>16</v>
       </c>
@@ -4463,7 +4478,7 @@
         <f>IF(Parcial_3!BI24="","",Parcial_3!BI24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="156">
+      <c r="G25" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4488,7 +4503,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15">
       <c r="A26" s="26">
         <v>17</v>
       </c>
@@ -4506,7 +4521,7 @@
         <f>IF(Parcial_3!BI25="","",Parcial_3!BI25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="157">
+      <c r="G26" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4531,7 +4546,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="26">
         <v>18</v>
       </c>
@@ -4549,7 +4564,7 @@
         <f>IF(Parcial_3!BI26="","",Parcial_3!BI26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="157">
+      <c r="G27" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4574,7 +4589,7 @@
       </c>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="26">
         <v>19</v>
       </c>
@@ -4592,7 +4607,7 @@
         <f>IF(Parcial_3!BI27="","",Parcial_3!BI27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="157">
+      <c r="G28" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4617,7 +4632,7 @@
       </c>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="29">
         <v>20</v>
       </c>
@@ -4635,7 +4650,7 @@
         <f>IF(Parcial_3!BI28="","",Parcial_3!BI28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="158">
+      <c r="G29" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4660,7 +4675,7 @@
       </c>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" thickTop="1">
       <c r="A30" s="22">
         <v>21</v>
       </c>
@@ -4678,7 +4693,7 @@
         <f>IF(Parcial_3!BI29="","",Parcial_3!BI29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="156">
+      <c r="G30" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4703,7 +4718,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="26">
         <v>22</v>
       </c>
@@ -4721,7 +4736,7 @@
         <f>IF(Parcial_3!BI30="","",Parcial_3!BI30)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="157">
+      <c r="G31" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4746,7 +4761,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="26">
         <v>23</v>
       </c>
@@ -4764,7 +4779,7 @@
         <f>IF(Parcial_3!BI31="","",Parcial_3!BI31)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="157">
+      <c r="G32" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4789,7 +4804,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15">
       <c r="A33" s="26">
         <v>24</v>
       </c>
@@ -4807,7 +4822,7 @@
         <f>IF(Parcial_3!BI32="","",Parcial_3!BI32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="157">
+      <c r="G33" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4832,7 +4847,7 @@
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1">
       <c r="A34" s="29">
         <v>25</v>
       </c>
@@ -4850,7 +4865,7 @@
         <f>IF(Parcial_3!BI33="","",Parcial_3!BI33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="158">
+      <c r="G34" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4875,7 +4890,7 @@
       </c>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" thickTop="1">
       <c r="A35" s="22">
         <v>26</v>
       </c>
@@ -4893,7 +4908,7 @@
         <f>IF(Parcial_3!BI34="","",Parcial_3!BI34)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="156">
+      <c r="G35" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4918,7 +4933,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="26">
         <v>27</v>
       </c>
@@ -4936,7 +4951,7 @@
         <f>IF(Parcial_3!BI35="","",Parcial_3!BI35)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="157">
+      <c r="G36" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4961,7 +4976,7 @@
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="26">
         <v>28</v>
       </c>
@@ -4979,7 +4994,7 @@
         <f>IF(Parcial_3!BI36="","",Parcial_3!BI36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="157">
+      <c r="G37" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5004,7 +5019,7 @@
       </c>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="26">
         <v>29</v>
       </c>
@@ -5022,7 +5037,7 @@
         <f>IF(Parcial_3!BI37="","",Parcial_3!BI37)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="157">
+      <c r="G38" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5047,7 +5062,7 @@
       </c>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1">
       <c r="A39" s="29">
         <v>30</v>
       </c>
@@ -5065,7 +5080,7 @@
         <f>IF(Parcial_3!BI38="","",Parcial_3!BI38)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="158">
+      <c r="G39" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5090,7 +5105,7 @@
       </c>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" thickTop="1">
       <c r="A40" s="22">
         <v>31</v>
       </c>
@@ -5108,7 +5123,7 @@
         <f>IF(Parcial_3!BI39="","",Parcial_3!BI39)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5133,7 +5148,7 @@
       </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="26">
         <v>32</v>
       </c>
@@ -5151,7 +5166,7 @@
         <f>IF(Parcial_3!BI40="","",Parcial_3!BI40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="157">
+      <c r="G41" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5176,7 +5191,7 @@
       </c>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="26">
         <v>33</v>
       </c>
@@ -5194,7 +5209,7 @@
         <f>IF(Parcial_3!BI41="","",Parcial_3!BI41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5219,7 +5234,7 @@
       </c>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15">
       <c r="A43" s="26">
         <v>34</v>
       </c>
@@ -5237,7 +5252,7 @@
         <f>IF(Parcial_3!BI42="","",Parcial_3!BI42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="157">
+      <c r="G43" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5262,7 +5277,7 @@
       </c>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
       <c r="A44" s="29">
         <v>35</v>
       </c>
@@ -5280,7 +5295,7 @@
         <f>IF(Parcial_3!BI43="","",Parcial_3!BI43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="158">
+      <c r="G44" s="157">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5305,7 +5320,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" thickTop="1">
       <c r="A45" s="22">
         <v>36</v>
       </c>
@@ -5323,7 +5338,7 @@
         <f>IF(Parcial_3!BI44="","",Parcial_3!BI44)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="156">
+      <c r="G45" s="155">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5348,7 +5363,7 @@
       </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15">
       <c r="A46" s="26">
         <v>37</v>
       </c>
@@ -5366,7 +5381,7 @@
         <f>IF(Parcial_3!BI45="","",Parcial_3!BI45)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="157">
+      <c r="G46" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5391,7 +5406,7 @@
       </c>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15">
       <c r="A47" s="26">
         <v>38</v>
       </c>
@@ -5409,7 +5424,7 @@
         <f>IF(Parcial_3!BI46="","",Parcial_3!BI46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="157">
+      <c r="G47" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5434,7 +5449,7 @@
       </c>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -5450,7 +5465,7 @@
         <f>IF(Parcial_3!BI47="","",Parcial_3!BI47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="157">
+      <c r="G48" s="156">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5475,7 +5490,7 @@
       </c>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="30"/>
@@ -5491,7 +5506,7 @@
         <f>IF(Parcial_3!BI48="","",Parcial_3!BI48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="158">
+      <c r="G49" s="157">
         <f t="shared" ref="G49:G54" si="3">IFERROR(AVERAGE(D49:F49),"")</f>
         <v>0</v>
       </c>
@@ -5516,7 +5531,7 @@
       </c>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" thickTop="1">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
@@ -5532,7 +5547,7 @@
         <f>IF(Parcial_3!BI49="","",Parcial_3!BI49)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="156">
+      <c r="G50" s="155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5557,7 +5572,7 @@
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
@@ -5573,7 +5588,7 @@
         <f>IF(Parcial_3!BI50="","",Parcial_3!BI50)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="157">
+      <c r="G51" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5598,7 +5613,7 @@
       </c>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
@@ -5614,7 +5629,7 @@
         <f>IF(Parcial_3!BI51="","",Parcial_3!BI51)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="157">
+      <c r="G52" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5639,7 +5654,7 @@
       </c>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
@@ -5655,7 +5670,7 @@
         <f>IF(Parcial_3!BI52="","",Parcial_3!BI52)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="157">
+      <c r="G53" s="156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5674,13 +5689,13 @@
         <v/>
       </c>
       <c r="J53" s="8"/>
-      <c r="K53" s="153" t="str">
+      <c r="K53" s="266" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1">
       <c r="A54" s="34"/>
       <c r="B54" s="34"/>
       <c r="C54" s="35"/>
@@ -5696,7 +5711,7 @@
         <f>IF(Parcial_3!BI53="","",Parcial_3!BI53)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="159">
+      <c r="G54" s="158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5715,90 +5730,83 @@
         <v/>
       </c>
       <c r="J54" s="12"/>
-      <c r="K54" s="155" t="str">
+      <c r="K54" s="267" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L54" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="175" t="s">
+    <row r="56" spans="1:12" ht="15" thickBot="1"/>
+    <row r="57" spans="1:12" ht="14.45" customHeight="1">
+      <c r="E57" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176">
+      <c r="F57" s="191"/>
+      <c r="G57" s="191">
         <f>COUNTIF(I10:I54,"&gt;=8.5")</f>
         <v>0</v>
       </c>
-      <c r="H57" s="179"/>
-    </row>
-    <row r="58" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="169"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="173"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="169" t="s">
+      <c r="H57" s="194"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.45" customHeight="1">
+      <c r="E58" s="184"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="185"/>
+      <c r="H58" s="188"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.45" customHeight="1">
+      <c r="E59" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170">
+      <c r="F59" s="185"/>
+      <c r="G59" s="185">
         <f>COUNTIF(I10:I54,"Ord A")</f>
         <v>0</v>
       </c>
-      <c r="H59" s="173"/>
-    </row>
-    <row r="60" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="169"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="173"/>
-    </row>
-    <row r="61" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="169" t="s">
+      <c r="H59" s="188"/>
+    </row>
+    <row r="60" spans="1:12" ht="14.45" customHeight="1">
+      <c r="E60" s="184"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="185"/>
+      <c r="H60" s="188"/>
+    </row>
+    <row r="61" spans="1:12" ht="14.45" customHeight="1">
+      <c r="E61" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170">
+      <c r="F61" s="185"/>
+      <c r="G61" s="185">
         <f>COUNTIF(K10:K54,"Extra")</f>
         <v>0</v>
       </c>
-      <c r="H61" s="173"/>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="177"/>
-      <c r="F62" s="178"/>
-      <c r="G62" s="178"/>
-      <c r="H62" s="180"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E63" s="169" t="s">
+      <c r="H61" s="188"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="E62" s="192"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
+      <c r="H62" s="195"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="E63" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170">
+      <c r="F63" s="185"/>
+      <c r="G63" s="185">
         <f>COUNTIF(L10:L54,"NA")</f>
         <v>0</v>
       </c>
-      <c r="H63" s="173"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="171"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="172"/>
-      <c r="H64" s="174"/>
+      <c r="H63" s="188"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" thickBot="1">
+      <c r="E64" s="186"/>
+      <c r="F64" s="187"/>
+      <c r="G64" s="187"/>
+      <c r="H64" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="I5:L7"/>
-    <mergeCell ref="A1:L4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E63:F64"/>
     <mergeCell ref="G63:H64"/>
     <mergeCell ref="E57:F58"/>
@@ -5807,6 +5815,13 @@
     <mergeCell ref="G57:H58"/>
     <mergeCell ref="G59:H60"/>
     <mergeCell ref="G61:H62"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="I5:L7"/>
+    <mergeCell ref="A1:L4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G54">
     <cfRule type="containsBlanks" priority="13" stopIfTrue="1">
@@ -5870,27 +5885,27 @@
       <selection pane="topRight" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.125" style="1" customWidth="1"/>
     <col min="5" max="25" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="43" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="53" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="43" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="53" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6.75" style="1" customWidth="1"/>
     <col min="56" max="60" width="5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.5703125" style="1"/>
+    <col min="61" max="61" width="11.75" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="211"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
+    <row r="1" spans="1:62">
+      <c r="A1" s="241"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125"/>
@@ -5951,34 +5966,34 @@
       <c r="BI1" s="125"/>
       <c r="BJ1" s="39"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="213"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
+    <row r="2" spans="1:62" ht="15">
+      <c r="A2" s="243"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
       <c r="D2"/>
-      <c r="E2" s="200" t="str">
+      <c r="E2" s="253" t="str">
         <f>IF(General!D5="","",General!D5)</f>
         <v>Ponderaciones</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -6018,52 +6033,52 @@
       <c r="BI2"/>
       <c r="BJ2" s="40"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="str">
+    <row r="3" spans="1:62" ht="15">
+      <c r="A3" s="168" t="str">
         <f>IF(General!A5="","",General!A5)</f>
         <v>Grupo:</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="164" t="str">
+      <c r="B3" s="169"/>
+      <c r="C3" s="163" t="str">
         <f>IF(General!C5="","",General!C5)</f>
         <v>2A</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="201" t="str">
+      <c r="E3" s="254" t="str">
         <f>IF(General!D6="","",General!D6)</f>
         <v>Asistencia</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254" t="str">
         <f>IF(General!E6="","",General!E6)</f>
         <v>Actividades</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201" t="str">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254" t="str">
         <f>IF(General!F6="","",General!F6)</f>
         <v>Evidencias</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201" t="str">
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254" t="str">
         <f>IF(General!G6="","",General!G6)</f>
         <v>Producto</v>
       </c>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201" t="str">
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254" t="str">
         <f>IF(General!H6="","",General!H6)</f>
         <v>Examen</v>
       </c>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -6103,52 +6118,52 @@
       <c r="BI3"/>
       <c r="BJ3" s="40"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="str">
+    <row r="4" spans="1:62" ht="15">
+      <c r="A4" s="168" t="str">
         <f>IF(General!A6="","",General!A6)</f>
         <v>Asignatura:</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="164" t="str">
+      <c r="B4" s="169"/>
+      <c r="C4" s="163" t="str">
         <f>IF(General!C6="","",General!C6)</f>
         <v>HABILIDADES SOCIALES</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="202">
+      <c r="E4" s="255">
         <f>IF(General!D7="","",General!D7)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="255">
         <f>IF(General!E7="","",General!E7)</f>
         <v>0.2</v>
       </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="202">
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="255">
         <f>IF(General!F7="","",General!F7)</f>
         <v>0.2</v>
       </c>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="202">
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="255">
         <f>IF(General!G7="","",General!G7)</f>
         <v>0.3</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="202">
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="255">
         <f>IF(General!H7="","",General!H7)</f>
         <v>0.3</v>
       </c>
-      <c r="V4" s="203"/>
-      <c r="W4" s="203"/>
-      <c r="X4" s="203"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -6188,13 +6203,13 @@
       <c r="BI4"/>
       <c r="BJ4" s="40"/>
     </row>
-    <row r="5" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="214" t="str">
+    <row r="5" spans="1:62" ht="15.75" thickBot="1">
+      <c r="A5" s="244" t="str">
         <f>IF(General!A7="","",General!A7)</f>
         <v>Docente:</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="164" t="str">
+      <c r="B5" s="245"/>
+      <c r="C5" s="163" t="str">
         <f>IF(General!C7="","",General!C7)</f>
         <v>EVANGELINA REYES AYALA</v>
       </c>
@@ -6258,236 +6273,236 @@
       <c r="BI5"/>
       <c r="BJ5" s="40"/>
     </row>
-    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1">
+      <c r="A6" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="224" t="s">
+      <c r="B6" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="237" t="s">
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="210"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="238"/>
-      <c r="AB6" s="238"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="238"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="238"/>
-      <c r="AG6" s="238"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="238"/>
-      <c r="AJ6" s="238"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="238"/>
-      <c r="AM6" s="238"/>
-      <c r="AN6" s="238"/>
-      <c r="AO6" s="238"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="239"/>
-      <c r="AR6" s="240" t="s">
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="219"/>
+      <c r="AR6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="242"/>
-      <c r="BB6" s="227" t="s">
+      <c r="AS6" s="221"/>
+      <c r="AT6" s="221"/>
+      <c r="AU6" s="221"/>
+      <c r="AV6" s="221"/>
+      <c r="AW6" s="221"/>
+      <c r="AX6" s="221"/>
+      <c r="AY6" s="221"/>
+      <c r="AZ6" s="221"/>
+      <c r="BA6" s="222"/>
+      <c r="BB6" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="BC6" s="234" t="s">
+      <c r="BC6" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="BD6" s="243" t="str">
+      <c r="BD6" s="223" t="str">
         <f>CONCATENATE(General!$D$6, ": ", General!$D$7*100, " %")</f>
         <v>Asistencia: 0 %</v>
       </c>
-      <c r="BE6" s="246" t="str">
+      <c r="BE6" s="226" t="str">
         <f>CONCATENATE(General!$E$6, ": ", General!$E$7*100, " %")</f>
         <v>Actividades: 20 %</v>
       </c>
-      <c r="BF6" s="249" t="str">
+      <c r="BF6" s="229" t="str">
         <f>CONCATENATE(General!$F$6, ": ", General!$F$7*100, " %")</f>
         <v>Evidencias: 20 %</v>
       </c>
-      <c r="BG6" s="227" t="str">
+      <c r="BG6" s="232" t="str">
         <f>CONCATENATE(General!$G$6, ": ", General!$G$7*100, " %")</f>
         <v>Producto: 30 %</v>
       </c>
-      <c r="BH6" s="234" t="str">
+      <c r="BH6" s="214" t="str">
         <f>CONCATENATE(General!$H$6, ": ", General!$H$7*100, " %")</f>
         <v>Examen: 30 %</v>
       </c>
-      <c r="BI6" s="204" t="s">
+      <c r="BI6" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BJ6" s="197" t="s">
+      <c r="BJ6" s="250" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" s="225"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="254" t="s">
+    <row r="7" spans="1:62">
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="252"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="216"/>
-      <c r="AJ7" s="216"/>
-      <c r="AK7" s="216"/>
-      <c r="AL7" s="216"/>
-      <c r="AM7" s="216"/>
-      <c r="AN7" s="216"/>
-      <c r="AO7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="222"/>
-      <c r="AS7" s="207"/>
-      <c r="AT7" s="207"/>
-      <c r="AU7" s="207"/>
-      <c r="AV7" s="207"/>
-      <c r="AW7" s="207"/>
-      <c r="AX7" s="207"/>
-      <c r="AY7" s="207"/>
-      <c r="AZ7" s="207"/>
-      <c r="BA7" s="209"/>
-      <c r="BB7" s="228"/>
-      <c r="BC7" s="235"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="247"/>
-      <c r="BF7" s="250"/>
-      <c r="BG7" s="228"/>
-      <c r="BH7" s="235"/>
-      <c r="BI7" s="205"/>
-      <c r="BJ7" s="198"/>
-    </row>
-    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="217"/>
-      <c r="AF8" s="217"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="217"/>
-      <c r="AI8" s="217"/>
-      <c r="AJ8" s="217"/>
-      <c r="AK8" s="217"/>
-      <c r="AL8" s="217"/>
-      <c r="AM8" s="217"/>
-      <c r="AN8" s="217"/>
-      <c r="AO8" s="217"/>
-      <c r="AP8" s="217"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="223"/>
-      <c r="AS8" s="208"/>
-      <c r="AT8" s="208"/>
-      <c r="AU8" s="208"/>
-      <c r="AV8" s="208"/>
-      <c r="AW8" s="208"/>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="210"/>
-      <c r="BB8" s="229"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="245"/>
-      <c r="BE8" s="248"/>
-      <c r="BF8" s="251"/>
-      <c r="BG8" s="229"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="206"/>
-      <c r="BJ8" s="199"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="X7" s="204"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="199"/>
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="199"/>
+      <c r="AO7" s="199"/>
+      <c r="AP7" s="199"/>
+      <c r="AQ7" s="239"/>
+      <c r="AR7" s="248"/>
+      <c r="AS7" s="237"/>
+      <c r="AT7" s="237"/>
+      <c r="AU7" s="237"/>
+      <c r="AV7" s="237"/>
+      <c r="AW7" s="237"/>
+      <c r="AX7" s="237"/>
+      <c r="AY7" s="237"/>
+      <c r="AZ7" s="237"/>
+      <c r="BA7" s="260"/>
+      <c r="BB7" s="233"/>
+      <c r="BC7" s="215"/>
+      <c r="BD7" s="224"/>
+      <c r="BE7" s="227"/>
+      <c r="BF7" s="230"/>
+      <c r="BG7" s="233"/>
+      <c r="BH7" s="215"/>
+      <c r="BI7" s="258"/>
+      <c r="BJ7" s="251"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="240"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="238"/>
+      <c r="AT8" s="238"/>
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="238"/>
+      <c r="AW8" s="238"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="238"/>
+      <c r="AZ8" s="238"/>
+      <c r="BA8" s="261"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="216"/>
+      <c r="BD8" s="225"/>
+      <c r="BE8" s="228"/>
+      <c r="BF8" s="231"/>
+      <c r="BG8" s="234"/>
+      <c r="BH8" s="216"/>
+      <c r="BI8" s="259"/>
+      <c r="BJ8" s="252"/>
+    </row>
+    <row r="9" spans="1:62" ht="15">
       <c r="A9" s="123">
         <f>IF(General!A10="","",General!A10)</f>
         <v>1</v>
@@ -6572,16 +6587,16 @@
         <f>IFERROR(AVERAGE($BC9) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI9" s="160">
+      <c r="BI9" s="159">
         <f>SUM(BD9:BH9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="165" t="str">
+      <c r="BJ9" s="164" t="str">
         <f>IF(ISERROR(COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0))),"",COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="15">
       <c r="A10" s="26">
         <f>IF(General!A11="","",General!A11)</f>
         <v>2</v>
@@ -6666,16 +6681,16 @@
         <f>IFERROR(AVERAGE($BC10) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI10" s="161">
+      <c r="BI10" s="160">
         <f t="shared" ref="BI10:BI53" si="0">SUM(BD10:BH10)</f>
         <v>0</v>
       </c>
-      <c r="BJ10" s="166" t="str">
+      <c r="BJ10" s="165" t="str">
         <f t="shared" ref="BJ10:BJ53" si="1">IF(ISERROR(COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0))),"",COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="15">
       <c r="A11" s="26">
         <f>IF(General!A12="","",General!A12)</f>
         <v>3</v>
@@ -6760,16 +6775,16 @@
         <f>IFERROR(AVERAGE($BC11) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI11" s="161">
+      <c r="BI11" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ11" s="166" t="str">
+      <c r="BJ11" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="15">
       <c r="A12" s="26">
         <f>IF(General!A13="","",General!A13)</f>
         <v>4</v>
@@ -6854,16 +6869,16 @@
         <f>IFERROR(AVERAGE($BC12) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI12" s="161">
+      <c r="BI12" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="166" t="str">
+      <c r="BJ12" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="15.75" thickBot="1">
       <c r="A13" s="29">
         <f>IF(General!A14="","",General!A14)</f>
         <v>5</v>
@@ -6948,16 +6963,16 @@
         <f>IFERROR(AVERAGE($BC13) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI13" s="162">
+      <c r="BI13" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ13" s="168" t="str">
+      <c r="BJ13" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="15.75" thickTop="1">
       <c r="A14" s="124">
         <f>IF(General!A15="","",General!A15)</f>
         <v>6</v>
@@ -7042,16 +7057,16 @@
         <f>IFERROR(AVERAGE($BC14) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI14" s="160">
+      <c r="BI14" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ14" s="165" t="str">
+      <c r="BJ14" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="15">
       <c r="A15" s="26">
         <f>IF(General!A16="","",General!A16)</f>
         <v>7</v>
@@ -7136,16 +7151,16 @@
         <f>IFERROR(AVERAGE($BC15) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI15" s="161">
+      <c r="BI15" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ15" s="166" t="str">
+      <c r="BJ15" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15">
       <c r="A16" s="26">
         <f>IF(General!A17="","",General!A17)</f>
         <v>8</v>
@@ -7230,16 +7245,16 @@
         <f>IFERROR(AVERAGE($BC16) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI16" s="161">
+      <c r="BI16" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ16" s="166" t="str">
+      <c r="BJ16" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="15">
       <c r="A17" s="26">
         <f>IF(General!A18="","",General!A18)</f>
         <v>9</v>
@@ -7324,16 +7339,16 @@
         <f>IFERROR(AVERAGE($BC17) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI17" s="161">
+      <c r="BI17" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ17" s="166" t="str">
+      <c r="BJ17" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="15.75" thickBot="1">
       <c r="A18" s="29">
         <f>IF(General!A19="","",General!A19)</f>
         <v>10</v>
@@ -7418,16 +7433,16 @@
         <f>IFERROR(AVERAGE($BC18) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI18" s="162">
+      <c r="BI18" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ18" s="168" t="str">
+      <c r="BJ18" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="15.75" thickTop="1">
       <c r="A19" s="124">
         <f>IF(General!A20="","",General!A20)</f>
         <v>11</v>
@@ -7512,16 +7527,16 @@
         <f>IFERROR(AVERAGE($BC19) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI19" s="160">
+      <c r="BI19" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ19" s="165" t="str">
+      <c r="BJ19" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="15">
       <c r="A20" s="26">
         <f>IF(General!A21="","",General!A21)</f>
         <v>12</v>
@@ -7606,16 +7621,16 @@
         <f>IFERROR(AVERAGE($BC20) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI20" s="161">
+      <c r="BI20" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ20" s="166" t="str">
+      <c r="BJ20" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="15">
       <c r="A21" s="26">
         <f>IF(General!A22="","",General!A22)</f>
         <v>13</v>
@@ -7700,16 +7715,16 @@
         <f>IFERROR(AVERAGE($BC21) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI21" s="161">
+      <c r="BI21" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ21" s="166" t="str">
+      <c r="BJ21" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="15">
       <c r="A22" s="26">
         <f>IF(General!A23="","",General!A23)</f>
         <v>14</v>
@@ -7794,16 +7809,16 @@
         <f>IFERROR(AVERAGE($BC22) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI22" s="161">
+      <c r="BI22" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ22" s="166" t="str">
+      <c r="BJ22" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="15.75" thickBot="1">
       <c r="A23" s="29">
         <f>IF(General!A24="","",General!A24)</f>
         <v>15</v>
@@ -7888,16 +7903,16 @@
         <f>IFERROR(AVERAGE($BC23) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI23" s="162">
+      <c r="BI23" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ23" s="168" t="str">
+      <c r="BJ23" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="15.75" thickTop="1">
       <c r="A24" s="124">
         <f>IF(General!A25="","",General!A25)</f>
         <v>16</v>
@@ -7982,16 +7997,16 @@
         <f>IFERROR(AVERAGE($BC24) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI24" s="160">
+      <c r="BI24" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ24" s="165" t="str">
+      <c r="BJ24" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="15">
       <c r="A25" s="26">
         <f>IF(General!A26="","",General!A26)</f>
         <v>17</v>
@@ -8076,16 +8091,16 @@
         <f>IFERROR(AVERAGE($BC25) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI25" s="161">
+      <c r="BI25" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ25" s="166" t="str">
+      <c r="BJ25" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="15">
       <c r="A26" s="26">
         <f>IF(General!A27="","",General!A27)</f>
         <v>18</v>
@@ -8170,16 +8185,16 @@
         <f>IFERROR(AVERAGE($BC26) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI26" s="161">
+      <c r="BI26" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ26" s="166" t="str">
+      <c r="BJ26" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="15">
       <c r="A27" s="26">
         <f>IF(General!A28="","",General!A28)</f>
         <v>19</v>
@@ -8264,16 +8279,16 @@
         <f>IFERROR(AVERAGE($BC27) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI27" s="161">
+      <c r="BI27" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ27" s="166" t="str">
+      <c r="BJ27" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="15.75" thickBot="1">
       <c r="A28" s="29">
         <f>IF(General!A29="","",General!A29)</f>
         <v>20</v>
@@ -8358,16 +8373,16 @@
         <f>IFERROR(AVERAGE($BC28) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI28" s="162">
+      <c r="BI28" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ28" s="168" t="str">
+      <c r="BJ28" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="15.75" thickTop="1">
       <c r="A29" s="124">
         <f>IF(General!A30="","",General!A30)</f>
         <v>21</v>
@@ -8452,16 +8467,16 @@
         <f>IFERROR(AVERAGE($BC29) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI29" s="160">
+      <c r="BI29" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="165" t="str">
+      <c r="BJ29" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="15">
       <c r="A30" s="26">
         <f>IF(General!A31="","",General!A31)</f>
         <v>22</v>
@@ -8546,16 +8561,16 @@
         <f>IFERROR(AVERAGE($BC30) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI30" s="161">
+      <c r="BI30" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="166" t="str">
+      <c r="BJ30" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="15">
       <c r="A31" s="26">
         <f>IF(General!A32="","",General!A32)</f>
         <v>23</v>
@@ -8640,16 +8655,16 @@
         <f>IFERROR(AVERAGE($BC31) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI31" s="161">
+      <c r="BI31" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ31" s="166" t="str">
+      <c r="BJ31" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="15">
       <c r="A32" s="26">
         <f>IF(General!A33="","",General!A33)</f>
         <v>24</v>
@@ -8734,16 +8749,16 @@
         <f>IFERROR(AVERAGE($BC32) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI32" s="161">
+      <c r="BI32" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ32" s="166" t="str">
+      <c r="BJ32" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="15.75" thickBot="1">
       <c r="A33" s="29">
         <f>IF(General!A34="","",General!A34)</f>
         <v>25</v>
@@ -8828,16 +8843,16 @@
         <f>IFERROR(AVERAGE($BC33) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI33" s="162">
+      <c r="BI33" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ33" s="168" t="str">
+      <c r="BJ33" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="15.75" thickTop="1">
       <c r="A34" s="124">
         <f>IF(General!A35="","",General!A35)</f>
         <v>26</v>
@@ -8922,16 +8937,16 @@
         <f>IFERROR(AVERAGE($BC34) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI34" s="160">
+      <c r="BI34" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ34" s="165" t="str">
+      <c r="BJ34" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="15">
       <c r="A35" s="26">
         <f>IF(General!A36="","",General!A36)</f>
         <v>27</v>
@@ -9016,16 +9031,16 @@
         <f>IFERROR(AVERAGE($BC35) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI35" s="161">
+      <c r="BI35" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ35" s="166" t="str">
+      <c r="BJ35" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="15">
       <c r="A36" s="26">
         <f>IF(General!A37="","",General!A37)</f>
         <v>28</v>
@@ -9110,16 +9125,16 @@
         <f>IFERROR(AVERAGE($BC36) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI36" s="161">
+      <c r="BI36" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ36" s="166" t="str">
+      <c r="BJ36" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="15">
       <c r="A37" s="26">
         <f>IF(General!A38="","",General!A38)</f>
         <v>29</v>
@@ -9204,16 +9219,16 @@
         <f>IFERROR(AVERAGE($BC37) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI37" s="161">
+      <c r="BI37" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ37" s="166" t="str">
+      <c r="BJ37" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="15.75" thickBot="1">
       <c r="A38" s="29">
         <f>IF(General!A39="","",General!A39)</f>
         <v>30</v>
@@ -9298,16 +9313,16 @@
         <f>IFERROR(AVERAGE($BC38) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI38" s="162">
+      <c r="BI38" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ38" s="168" t="str">
+      <c r="BJ38" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="15.75" thickTop="1">
       <c r="A39" s="124">
         <f>IF(General!A40="","",General!A40)</f>
         <v>31</v>
@@ -9392,16 +9407,16 @@
         <f>IFERROR(AVERAGE($BC39) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI39" s="160">
+      <c r="BI39" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ39" s="165" t="str">
+      <c r="BJ39" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="15">
       <c r="A40" s="26">
         <f>IF(General!A41="","",General!A41)</f>
         <v>32</v>
@@ -9486,16 +9501,16 @@
         <f>IFERROR(AVERAGE($BC40) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI40" s="161">
+      <c r="BI40" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ40" s="166" t="str">
+      <c r="BJ40" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="15">
       <c r="A41" s="26">
         <f>IF(General!A42="","",General!A42)</f>
         <v>33</v>
@@ -9580,16 +9595,16 @@
         <f>IFERROR(AVERAGE($BC41) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI41" s="161">
+      <c r="BI41" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ41" s="166" t="str">
+      <c r="BJ41" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="15">
       <c r="A42" s="26">
         <f>IF(General!A43="","",General!A43)</f>
         <v>34</v>
@@ -9674,16 +9689,16 @@
         <f>IFERROR(AVERAGE($BC42) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI42" s="161">
+      <c r="BI42" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ42" s="166" t="str">
+      <c r="BJ42" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="15.75" thickBot="1">
       <c r="A43" s="29">
         <f>IF(General!A44="","",General!A44)</f>
         <v>35</v>
@@ -9768,16 +9783,16 @@
         <f>IFERROR(AVERAGE($BC43) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI43" s="162">
+      <c r="BI43" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ43" s="168" t="str">
+      <c r="BJ43" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" ht="15.75" thickTop="1">
       <c r="A44" s="124">
         <f>IF(General!A45="","",General!A45)</f>
         <v>36</v>
@@ -9862,16 +9877,16 @@
         <f>IFERROR(AVERAGE($BC44) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI44" s="160">
+      <c r="BI44" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="165" t="str">
+      <c r="BJ44" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" ht="15">
       <c r="A45" s="26">
         <f>IF(General!A46="","",General!A46)</f>
         <v>37</v>
@@ -9956,16 +9971,16 @@
         <f>IFERROR(AVERAGE($BC45) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI45" s="161">
+      <c r="BI45" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ45" s="166" t="str">
+      <c r="BJ45" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="15">
       <c r="A46" s="26">
         <f>IF(General!A47="","",General!A47)</f>
         <v>38</v>
@@ -10050,16 +10065,16 @@
         <f>IFERROR(AVERAGE($BC46) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI46" s="161">
+      <c r="BI46" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ46" s="166" t="str">
+      <c r="BJ46" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" ht="15">
       <c r="A47" s="26" t="str">
         <f>IF(General!A48="","",General!A48)</f>
         <v/>
@@ -10144,16 +10159,16 @@
         <f>IFERROR(AVERAGE($BC47) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI47" s="161">
+      <c r="BI47" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ47" s="166" t="str">
+      <c r="BJ47" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:62" ht="15.75" thickBot="1">
       <c r="A48" s="29" t="str">
         <f>IF(General!A49="","",General!A49)</f>
         <v/>
@@ -10238,16 +10253,16 @@
         <f>IFERROR(AVERAGE($BC48) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI48" s="162">
+      <c r="BI48" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ48" s="168" t="str">
+      <c r="BJ48" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" ht="15.75" thickTop="1">
       <c r="A49" s="22" t="str">
         <f>IF(General!A50="","",General!A50)</f>
         <v/>
@@ -10332,16 +10347,16 @@
         <f>IFERROR(AVERAGE($BC49) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI49" s="160">
+      <c r="BI49" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ49" s="165" t="str">
+      <c r="BJ49" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" ht="15">
       <c r="A50" s="26" t="str">
         <f>IF(General!A51="","",General!A51)</f>
         <v/>
@@ -10426,16 +10441,16 @@
         <f>IFERROR(AVERAGE($BC50) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI50" s="161">
+      <c r="BI50" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ50" s="166" t="str">
+      <c r="BJ50" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" ht="15">
       <c r="A51" s="26" t="str">
         <f>IF(General!A52="","",General!A52)</f>
         <v/>
@@ -10520,16 +10535,16 @@
         <f>IFERROR(AVERAGE($BC51) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI51" s="161">
+      <c r="BI51" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ51" s="166" t="str">
+      <c r="BJ51" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" ht="15">
       <c r="A52" s="26" t="str">
         <f>IF(General!A53="","",General!A53)</f>
         <v/>
@@ -10614,16 +10629,16 @@
         <f>IFERROR(AVERAGE($BC52) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI52" s="161">
+      <c r="BI52" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ52" s="166" t="str">
+      <c r="BJ52" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:62" ht="15.75" thickBot="1">
       <c r="A53" s="34" t="str">
         <f>IF(General!A54="","",General!A54)</f>
         <v/>
@@ -10708,16 +10723,16 @@
         <f>IFERROR(AVERAGE($BC53) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI53" s="163">
+      <c r="BI53" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ53" s="167" t="str">
+      <c r="BJ53" s="166" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62">
       <c r="A54" s="1" t="str">
         <f>IF(General!A55="","",General!A55)</f>
         <v/>
@@ -10733,6 +10748,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="BJ6:BJ8"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="BI6:BI8"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="BB6:BB8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="BH6:BH8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="Z6:AQ6"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BD6:BD8"/>
+    <mergeCell ref="BE6:BE8"/>
+    <mergeCell ref="BF6:BF8"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="BC6:BC8"/>
+    <mergeCell ref="Z7:Z8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="AH7:AH8"/>
@@ -10749,68 +10826,6 @@
     <mergeCell ref="D6:Y6"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="BH6:BH8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="Z6:AQ6"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BD6:BD8"/>
-    <mergeCell ref="BE6:BE8"/>
-    <mergeCell ref="BF6:BF8"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="BC6:BC8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="BB6:BB8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AU7:AU8"/>
-    <mergeCell ref="AV7:AV8"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="BI6:BI8"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="BA7:BA8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fecha" prompt="Escribe la fecha con este formato: 01-01-2025" sqref="D7:V8" xr:uid="{9A5C6FBC-C4F6-4C43-8065-376093C2B0D2}"/>
@@ -10861,27 +10876,27 @@
       <selection pane="topRight" activeCell="AY43" sqref="AY43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.125" style="1" customWidth="1"/>
     <col min="5" max="25" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="43" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="53" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="43" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="53" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6.75" style="1" customWidth="1"/>
     <col min="56" max="60" width="5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.5703125" style="1"/>
+    <col min="61" max="61" width="11.75" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="188"/>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
+    <row r="1" spans="1:62">
+      <c r="A1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125"/>
@@ -10942,34 +10957,34 @@
       <c r="BI1" s="38"/>
       <c r="BJ1" s="39"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
+    <row r="2" spans="1:62" ht="15">
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
       <c r="D2"/>
-      <c r="E2" s="200" t="str">
+      <c r="E2" s="253" t="str">
         <f>IF(General!D5="","",General!D5)</f>
         <v>Ponderaciones</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -11001,52 +11016,52 @@
       <c r="BA2"/>
       <c r="BJ2" s="40"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="str">
+    <row r="3" spans="1:62" ht="15">
+      <c r="A3" s="168" t="str">
         <f>IF(General!A5="","",General!A5)</f>
         <v>Grupo:</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="164" t="str">
+      <c r="B3" s="169"/>
+      <c r="C3" s="163" t="str">
         <f>IF(General!C5="","",General!C5)</f>
         <v>2A</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="201" t="str">
+      <c r="E3" s="254" t="str">
         <f>IF(General!D6="","",General!D6)</f>
         <v>Asistencia</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254" t="str">
         <f>IF(General!E6="","",General!E6)</f>
         <v>Actividades</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201" t="str">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254" t="str">
         <f>IF(General!F6="","",General!F6)</f>
         <v>Evidencias</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201" t="str">
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254" t="str">
         <f>IF(General!G6="","",General!G6)</f>
         <v>Producto</v>
       </c>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201" t="str">
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254" t="str">
         <f>IF(General!H6="","",General!H6)</f>
         <v>Examen</v>
       </c>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -11078,52 +11093,52 @@
       <c r="BA3"/>
       <c r="BJ3" s="40"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="str">
+    <row r="4" spans="1:62" ht="15">
+      <c r="A4" s="168" t="str">
         <f>IF(General!A6="","",General!A6)</f>
         <v>Asignatura:</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="164" t="str">
+      <c r="B4" s="169"/>
+      <c r="C4" s="163" t="str">
         <f>IF(General!C6="","",General!C6)</f>
         <v>HABILIDADES SOCIALES</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="202">
+      <c r="E4" s="255">
         <f>IF(General!D7="","",General!D7)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="255">
         <f>IF(General!E7="","",General!E7)</f>
         <v>0.2</v>
       </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="202">
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="255">
         <f>IF(General!F7="","",General!F7)</f>
         <v>0.2</v>
       </c>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="202">
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="255">
         <f>IF(General!G7="","",General!G7)</f>
         <v>0.3</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="202">
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="255">
         <f>IF(General!H7="","",General!H7)</f>
         <v>0.3</v>
       </c>
-      <c r="V4" s="203"/>
-      <c r="W4" s="203"/>
-      <c r="X4" s="203"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -11155,13 +11170,13 @@
       <c r="BA4"/>
       <c r="BJ4" s="40"/>
     </row>
-    <row r="5" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="214" t="str">
+    <row r="5" spans="1:62" ht="15.75" thickBot="1">
+      <c r="A5" s="244" t="str">
         <f>IF(General!A7="","",General!A7)</f>
         <v>Docente:</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="164" t="str">
+      <c r="B5" s="245"/>
+      <c r="C5" s="163" t="str">
         <f>IF(General!C7="","",General!C7)</f>
         <v>EVANGELINA REYES AYALA</v>
       </c>
@@ -11217,236 +11232,236 @@
       <c r="BA5"/>
       <c r="BJ5" s="40"/>
     </row>
-    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1">
+      <c r="A6" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="224" t="s">
+      <c r="B6" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="237" t="s">
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="210"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="238"/>
-      <c r="AB6" s="238"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="238"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="238"/>
-      <c r="AG6" s="238"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="238"/>
-      <c r="AJ6" s="238"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="238"/>
-      <c r="AM6" s="238"/>
-      <c r="AN6" s="238"/>
-      <c r="AO6" s="238"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="239"/>
-      <c r="AR6" s="240" t="s">
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="219"/>
+      <c r="AR6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="242"/>
-      <c r="BB6" s="227" t="s">
+      <c r="AS6" s="221"/>
+      <c r="AT6" s="221"/>
+      <c r="AU6" s="221"/>
+      <c r="AV6" s="221"/>
+      <c r="AW6" s="221"/>
+      <c r="AX6" s="221"/>
+      <c r="AY6" s="221"/>
+      <c r="AZ6" s="221"/>
+      <c r="BA6" s="222"/>
+      <c r="BB6" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="BC6" s="234" t="s">
+      <c r="BC6" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="BD6" s="243" t="str">
+      <c r="BD6" s="223" t="str">
         <f>CONCATENATE(General!$D$6, ": ", General!$D$7*100, " %")</f>
         <v>Asistencia: 0 %</v>
       </c>
-      <c r="BE6" s="246" t="str">
+      <c r="BE6" s="226" t="str">
         <f>CONCATENATE(General!$E$6, ": ", General!$E$7*100, " %")</f>
         <v>Actividades: 20 %</v>
       </c>
-      <c r="BF6" s="249" t="str">
+      <c r="BF6" s="229" t="str">
         <f>CONCATENATE(General!$F$6, ": ", General!$F$7*100, " %")</f>
         <v>Evidencias: 20 %</v>
       </c>
-      <c r="BG6" s="227" t="str">
+      <c r="BG6" s="232" t="str">
         <f>CONCATENATE(General!$G$6, ": ", General!$G$7*100, " %")</f>
         <v>Producto: 30 %</v>
       </c>
-      <c r="BH6" s="234" t="str">
+      <c r="BH6" s="214" t="str">
         <f>CONCATENATE(General!$H$6, ": ", General!$H$7*100, " %")</f>
         <v>Examen: 30 %</v>
       </c>
-      <c r="BI6" s="204" t="s">
+      <c r="BI6" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BJ6" s="197" t="s">
+      <c r="BJ6" s="250" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" s="225"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="254" t="s">
+    <row r="7" spans="1:62">
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="252"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="216"/>
-      <c r="AJ7" s="216"/>
-      <c r="AK7" s="216"/>
-      <c r="AL7" s="216"/>
-      <c r="AM7" s="216"/>
-      <c r="AN7" s="216"/>
-      <c r="AO7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="222"/>
-      <c r="AS7" s="207"/>
-      <c r="AT7" s="207"/>
-      <c r="AU7" s="207"/>
-      <c r="AV7" s="207"/>
-      <c r="AW7" s="207"/>
-      <c r="AX7" s="207"/>
-      <c r="AY7" s="207"/>
-      <c r="AZ7" s="207"/>
-      <c r="BA7" s="209"/>
-      <c r="BB7" s="228"/>
-      <c r="BC7" s="235"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="247"/>
-      <c r="BF7" s="250"/>
-      <c r="BG7" s="228"/>
-      <c r="BH7" s="235"/>
-      <c r="BI7" s="205"/>
-      <c r="BJ7" s="198"/>
-    </row>
-    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="217"/>
-      <c r="AF8" s="217"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="217"/>
-      <c r="AI8" s="217"/>
-      <c r="AJ8" s="217"/>
-      <c r="AK8" s="217"/>
-      <c r="AL8" s="217"/>
-      <c r="AM8" s="217"/>
-      <c r="AN8" s="217"/>
-      <c r="AO8" s="217"/>
-      <c r="AP8" s="217"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="223"/>
-      <c r="AS8" s="208"/>
-      <c r="AT8" s="208"/>
-      <c r="AU8" s="208"/>
-      <c r="AV8" s="208"/>
-      <c r="AW8" s="208"/>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="210"/>
-      <c r="BB8" s="229"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="245"/>
-      <c r="BE8" s="248"/>
-      <c r="BF8" s="251"/>
-      <c r="BG8" s="229"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="206"/>
-      <c r="BJ8" s="199"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="X7" s="204"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="199"/>
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="199"/>
+      <c r="AO7" s="199"/>
+      <c r="AP7" s="199"/>
+      <c r="AQ7" s="239"/>
+      <c r="AR7" s="248"/>
+      <c r="AS7" s="237"/>
+      <c r="AT7" s="237"/>
+      <c r="AU7" s="237"/>
+      <c r="AV7" s="237"/>
+      <c r="AW7" s="237"/>
+      <c r="AX7" s="237"/>
+      <c r="AY7" s="237"/>
+      <c r="AZ7" s="237"/>
+      <c r="BA7" s="260"/>
+      <c r="BB7" s="233"/>
+      <c r="BC7" s="215"/>
+      <c r="BD7" s="224"/>
+      <c r="BE7" s="227"/>
+      <c r="BF7" s="230"/>
+      <c r="BG7" s="233"/>
+      <c r="BH7" s="215"/>
+      <c r="BI7" s="258"/>
+      <c r="BJ7" s="251"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="240"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="238"/>
+      <c r="AT8" s="238"/>
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="238"/>
+      <c r="AW8" s="238"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="238"/>
+      <c r="AZ8" s="238"/>
+      <c r="BA8" s="261"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="216"/>
+      <c r="BD8" s="225"/>
+      <c r="BE8" s="228"/>
+      <c r="BF8" s="231"/>
+      <c r="BG8" s="234"/>
+      <c r="BH8" s="216"/>
+      <c r="BI8" s="259"/>
+      <c r="BJ8" s="252"/>
+    </row>
+    <row r="9" spans="1:62" ht="15">
       <c r="A9" s="123">
         <f>IF(General!A10="","",General!A10)</f>
         <v>1</v>
@@ -11531,16 +11546,16 @@
         <f>IFERROR(AVERAGE($BC9) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI9" s="160">
+      <c r="BI9" s="159">
         <f>SUM(BD9:BH9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="165" t="str">
+      <c r="BJ9" s="164" t="str">
         <f>IF(ISERROR(COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0))),"",COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="15">
       <c r="A10" s="26">
         <f>IF(General!A11="","",General!A11)</f>
         <v>2</v>
@@ -11625,16 +11640,16 @@
         <f>IFERROR(AVERAGE($BC10) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI10" s="161">
+      <c r="BI10" s="160">
         <f t="shared" ref="BI10:BI53" si="0">SUM(BD10:BH10)</f>
         <v>0</v>
       </c>
-      <c r="BJ10" s="166" t="str">
+      <c r="BJ10" s="165" t="str">
         <f t="shared" ref="BJ10:BJ53" si="1">IF(ISERROR(COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0))),"",COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="15">
       <c r="A11" s="26">
         <f>IF(General!A12="","",General!A12)</f>
         <v>3</v>
@@ -11719,16 +11734,16 @@
         <f>IFERROR(AVERAGE($BC11) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI11" s="161">
+      <c r="BI11" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ11" s="166" t="str">
+      <c r="BJ11" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="15">
       <c r="A12" s="26">
         <f>IF(General!A13="","",General!A13)</f>
         <v>4</v>
@@ -11813,16 +11828,16 @@
         <f>IFERROR(AVERAGE($BC12) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI12" s="161">
+      <c r="BI12" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="166" t="str">
+      <c r="BJ12" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="15.75" thickBot="1">
       <c r="A13" s="29">
         <f>IF(General!A14="","",General!A14)</f>
         <v>5</v>
@@ -11907,16 +11922,16 @@
         <f>IFERROR(AVERAGE($BC13) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI13" s="162">
+      <c r="BI13" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ13" s="168" t="str">
+      <c r="BJ13" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="15.75" thickTop="1">
       <c r="A14" s="124">
         <f>IF(General!A15="","",General!A15)</f>
         <v>6</v>
@@ -12001,16 +12016,16 @@
         <f>IFERROR(AVERAGE($BC14) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI14" s="160">
+      <c r="BI14" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ14" s="165" t="str">
+      <c r="BJ14" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="15">
       <c r="A15" s="26">
         <f>IF(General!A16="","",General!A16)</f>
         <v>7</v>
@@ -12095,16 +12110,16 @@
         <f>IFERROR(AVERAGE($BC15) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI15" s="161">
+      <c r="BI15" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ15" s="166" t="str">
+      <c r="BJ15" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15">
       <c r="A16" s="26">
         <f>IF(General!A17="","",General!A17)</f>
         <v>8</v>
@@ -12189,16 +12204,16 @@
         <f>IFERROR(AVERAGE($BC16) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI16" s="161">
+      <c r="BI16" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ16" s="166" t="str">
+      <c r="BJ16" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="15">
       <c r="A17" s="26">
         <f>IF(General!A18="","",General!A18)</f>
         <v>9</v>
@@ -12283,16 +12298,16 @@
         <f>IFERROR(AVERAGE($BC17) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI17" s="161">
+      <c r="BI17" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ17" s="166" t="str">
+      <c r="BJ17" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="15.75" thickBot="1">
       <c r="A18" s="29">
         <f>IF(General!A19="","",General!A19)</f>
         <v>10</v>
@@ -12377,16 +12392,16 @@
         <f>IFERROR(AVERAGE($BC18) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI18" s="162">
+      <c r="BI18" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ18" s="168" t="str">
+      <c r="BJ18" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="15.75" thickTop="1">
       <c r="A19" s="124">
         <f>IF(General!A20="","",General!A20)</f>
         <v>11</v>
@@ -12471,16 +12486,16 @@
         <f>IFERROR(AVERAGE($BC19) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI19" s="160">
+      <c r="BI19" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ19" s="165" t="str">
+      <c r="BJ19" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="15">
       <c r="A20" s="26">
         <f>IF(General!A21="","",General!A21)</f>
         <v>12</v>
@@ -12565,16 +12580,16 @@
         <f>IFERROR(AVERAGE($BC20) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI20" s="161">
+      <c r="BI20" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ20" s="166" t="str">
+      <c r="BJ20" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="15">
       <c r="A21" s="26">
         <f>IF(General!A22="","",General!A22)</f>
         <v>13</v>
@@ -12659,16 +12674,16 @@
         <f>IFERROR(AVERAGE($BC21) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI21" s="161">
+      <c r="BI21" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ21" s="166" t="str">
+      <c r="BJ21" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="15">
       <c r="A22" s="26">
         <f>IF(General!A23="","",General!A23)</f>
         <v>14</v>
@@ -12753,16 +12768,16 @@
         <f>IFERROR(AVERAGE($BC22) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI22" s="161">
+      <c r="BI22" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ22" s="166" t="str">
+      <c r="BJ22" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="15.75" thickBot="1">
       <c r="A23" s="29">
         <f>IF(General!A24="","",General!A24)</f>
         <v>15</v>
@@ -12847,16 +12862,16 @@
         <f>IFERROR(AVERAGE($BC23) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI23" s="162">
+      <c r="BI23" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ23" s="168" t="str">
+      <c r="BJ23" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="15.75" thickTop="1">
       <c r="A24" s="124">
         <f>IF(General!A25="","",General!A25)</f>
         <v>16</v>
@@ -12941,16 +12956,16 @@
         <f>IFERROR(AVERAGE($BC24) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI24" s="160">
+      <c r="BI24" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ24" s="165" t="str">
+      <c r="BJ24" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="15">
       <c r="A25" s="26">
         <f>IF(General!A26="","",General!A26)</f>
         <v>17</v>
@@ -13035,16 +13050,16 @@
         <f>IFERROR(AVERAGE($BC25) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI25" s="161">
+      <c r="BI25" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ25" s="166" t="str">
+      <c r="BJ25" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="15">
       <c r="A26" s="26">
         <f>IF(General!A27="","",General!A27)</f>
         <v>18</v>
@@ -13129,16 +13144,16 @@
         <f>IFERROR(AVERAGE($BC26) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI26" s="161">
+      <c r="BI26" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ26" s="166" t="str">
+      <c r="BJ26" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="15">
       <c r="A27" s="26">
         <f>IF(General!A28="","",General!A28)</f>
         <v>19</v>
@@ -13223,16 +13238,16 @@
         <f>IFERROR(AVERAGE($BC27) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI27" s="161">
+      <c r="BI27" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ27" s="166" t="str">
+      <c r="BJ27" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="15.75" thickBot="1">
       <c r="A28" s="29">
         <f>IF(General!A29="","",General!A29)</f>
         <v>20</v>
@@ -13317,16 +13332,16 @@
         <f>IFERROR(AVERAGE($BC28) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI28" s="162">
+      <c r="BI28" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ28" s="168" t="str">
+      <c r="BJ28" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="15.75" thickTop="1">
       <c r="A29" s="124">
         <f>IF(General!A30="","",General!A30)</f>
         <v>21</v>
@@ -13411,16 +13426,16 @@
         <f>IFERROR(AVERAGE($BC29) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI29" s="160">
+      <c r="BI29" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="165" t="str">
+      <c r="BJ29" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="15">
       <c r="A30" s="26">
         <f>IF(General!A31="","",General!A31)</f>
         <v>22</v>
@@ -13505,16 +13520,16 @@
         <f>IFERROR(AVERAGE($BC30) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI30" s="161">
+      <c r="BI30" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="166" t="str">
+      <c r="BJ30" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="15">
       <c r="A31" s="26">
         <f>IF(General!A32="","",General!A32)</f>
         <v>23</v>
@@ -13599,16 +13614,16 @@
         <f>IFERROR(AVERAGE($BC31) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI31" s="161">
+      <c r="BI31" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ31" s="166" t="str">
+      <c r="BJ31" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="15">
       <c r="A32" s="26">
         <f>IF(General!A33="","",General!A33)</f>
         <v>24</v>
@@ -13693,16 +13708,16 @@
         <f>IFERROR(AVERAGE($BC32) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI32" s="161">
+      <c r="BI32" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ32" s="166" t="str">
+      <c r="BJ32" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="15.75" thickBot="1">
       <c r="A33" s="29">
         <f>IF(General!A34="","",General!A34)</f>
         <v>25</v>
@@ -13787,16 +13802,16 @@
         <f>IFERROR(AVERAGE($BC33) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI33" s="162">
+      <c r="BI33" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ33" s="168" t="str">
+      <c r="BJ33" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="15.75" thickTop="1">
       <c r="A34" s="124">
         <f>IF(General!A35="","",General!A35)</f>
         <v>26</v>
@@ -13881,16 +13896,16 @@
         <f>IFERROR(AVERAGE($BC34) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI34" s="160">
+      <c r="BI34" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ34" s="165" t="str">
+      <c r="BJ34" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="15">
       <c r="A35" s="26">
         <f>IF(General!A36="","",General!A36)</f>
         <v>27</v>
@@ -13975,16 +13990,16 @@
         <f>IFERROR(AVERAGE($BC35) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI35" s="161">
+      <c r="BI35" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ35" s="166" t="str">
+      <c r="BJ35" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="15">
       <c r="A36" s="26">
         <f>IF(General!A37="","",General!A37)</f>
         <v>28</v>
@@ -14069,16 +14084,16 @@
         <f>IFERROR(AVERAGE($BC36) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI36" s="161">
+      <c r="BI36" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ36" s="166" t="str">
+      <c r="BJ36" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="15">
       <c r="A37" s="26">
         <f>IF(General!A38="","",General!A38)</f>
         <v>29</v>
@@ -14163,16 +14178,16 @@
         <f>IFERROR(AVERAGE($BC37) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI37" s="161">
+      <c r="BI37" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ37" s="166" t="str">
+      <c r="BJ37" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="15.75" thickBot="1">
       <c r="A38" s="29">
         <f>IF(General!A39="","",General!A39)</f>
         <v>30</v>
@@ -14257,16 +14272,16 @@
         <f>IFERROR(AVERAGE($BC38) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI38" s="162">
+      <c r="BI38" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ38" s="168" t="str">
+      <c r="BJ38" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="15.75" thickTop="1">
       <c r="A39" s="124">
         <f>IF(General!A40="","",General!A40)</f>
         <v>31</v>
@@ -14351,16 +14366,16 @@
         <f>IFERROR(AVERAGE($BC39) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI39" s="160">
+      <c r="BI39" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ39" s="165" t="str">
+      <c r="BJ39" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="15">
       <c r="A40" s="26">
         <f>IF(General!A41="","",General!A41)</f>
         <v>32</v>
@@ -14445,16 +14460,16 @@
         <f>IFERROR(AVERAGE($BC40) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI40" s="161">
+      <c r="BI40" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ40" s="166" t="str">
+      <c r="BJ40" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="15">
       <c r="A41" s="26">
         <f>IF(General!A42="","",General!A42)</f>
         <v>33</v>
@@ -14539,16 +14554,16 @@
         <f>IFERROR(AVERAGE($BC41) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI41" s="161">
+      <c r="BI41" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ41" s="166" t="str">
+      <c r="BJ41" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="15">
       <c r="A42" s="26">
         <f>IF(General!A43="","",General!A43)</f>
         <v>34</v>
@@ -14633,16 +14648,16 @@
         <f>IFERROR(AVERAGE($BC42) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI42" s="161">
+      <c r="BI42" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ42" s="166" t="str">
+      <c r="BJ42" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="15.75" thickBot="1">
       <c r="A43" s="29">
         <f>IF(General!A44="","",General!A44)</f>
         <v>35</v>
@@ -14727,16 +14742,16 @@
         <f>IFERROR(AVERAGE($BC43) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI43" s="162">
+      <c r="BI43" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ43" s="168" t="str">
+      <c r="BJ43" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" ht="15.75" thickTop="1">
       <c r="A44" s="124">
         <f>IF(General!A45="","",General!A45)</f>
         <v>36</v>
@@ -14821,16 +14836,16 @@
         <f>IFERROR(AVERAGE($BC44) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI44" s="160">
+      <c r="BI44" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="165" t="str">
+      <c r="BJ44" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" ht="15">
       <c r="A45" s="26">
         <f>IF(General!A46="","",General!A46)</f>
         <v>37</v>
@@ -14915,16 +14930,16 @@
         <f>IFERROR(AVERAGE($BC45) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI45" s="161">
+      <c r="BI45" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ45" s="166" t="str">
+      <c r="BJ45" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="15">
       <c r="A46" s="26">
         <f>IF(General!A47="","",General!A47)</f>
         <v>38</v>
@@ -15009,16 +15024,16 @@
         <f>IFERROR(AVERAGE($BC46) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI46" s="161">
+      <c r="BI46" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ46" s="166" t="str">
+      <c r="BJ46" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" ht="15">
       <c r="A47" s="26" t="str">
         <f>IF(General!A48="","",General!A48)</f>
         <v/>
@@ -15103,16 +15118,16 @@
         <f>IFERROR(AVERAGE($BC47) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI47" s="161">
+      <c r="BI47" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ47" s="166" t="str">
+      <c r="BJ47" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:62" ht="15.75" thickBot="1">
       <c r="A48" s="29" t="str">
         <f>IF(General!A49="","",General!A49)</f>
         <v/>
@@ -15197,16 +15212,16 @@
         <f>IFERROR(AVERAGE($BC48) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI48" s="162">
+      <c r="BI48" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ48" s="168" t="str">
+      <c r="BJ48" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" ht="15.75" thickTop="1">
       <c r="A49" s="22" t="str">
         <f>IF(General!A50="","",General!A50)</f>
         <v/>
@@ -15291,16 +15306,16 @@
         <f>IFERROR(AVERAGE($BC49) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI49" s="160">
+      <c r="BI49" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ49" s="165" t="str">
+      <c r="BJ49" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" ht="15">
       <c r="A50" s="26" t="str">
         <f>IF(General!A51="","",General!A51)</f>
         <v/>
@@ -15385,16 +15400,16 @@
         <f>IFERROR(AVERAGE($BC50) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI50" s="161">
+      <c r="BI50" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ50" s="166" t="str">
+      <c r="BJ50" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" ht="15">
       <c r="A51" s="26" t="str">
         <f>IF(General!A52="","",General!A52)</f>
         <v/>
@@ -15479,16 +15494,16 @@
         <f>IFERROR(AVERAGE($BC51) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI51" s="161">
+      <c r="BI51" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ51" s="166" t="str">
+      <c r="BJ51" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" ht="15">
       <c r="A52" s="26" t="str">
         <f>IF(General!A53="","",General!A53)</f>
         <v/>
@@ -15573,16 +15588,16 @@
         <f>IFERROR(AVERAGE($BC52) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI52" s="161">
+      <c r="BI52" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ52" s="166" t="str">
+      <c r="BJ52" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:62" ht="15.75" thickBot="1">
       <c r="A53" s="34" t="str">
         <f>IF(General!A54="","",General!A54)</f>
         <v/>
@@ -15667,16 +15682,16 @@
         <f>IFERROR(AVERAGE($BC53) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI53" s="163">
+      <c r="BI53" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ53" s="167" t="str">
+      <c r="BJ53" s="166" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62">
       <c r="A54" s="1" t="str">
         <f>IF(General!A55="","",General!A55)</f>
         <v/>
@@ -15692,20 +15707,54 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="BJ6:BJ8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BH6:BH8"/>
+    <mergeCell ref="BI6:BI8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BB8"/>
+    <mergeCell ref="BC6:BC8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="W7:Y8"/>
+    <mergeCell ref="BD6:BD8"/>
+    <mergeCell ref="BE6:BE8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="BF6:BF8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="Z6:AQ6"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:Z8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -15722,54 +15771,20 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="BD6:BD8"/>
-    <mergeCell ref="BE6:BE8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="BF6:BF8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AU7:AU8"/>
-    <mergeCell ref="AV7:AV8"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="Z6:AQ6"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BB8"/>
-    <mergeCell ref="BC6:BC8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="W7:Y8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BH6:BH8"/>
-    <mergeCell ref="BI6:BI8"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre" prompt="Escribe el nombre de la evidencia" sqref="AR7:BA8" xr:uid="{17A9960D-FEEC-41A4-9A25-969188B89ED4}"/>
@@ -15820,27 +15835,27 @@
       <selection pane="topRight" activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.125" style="1" customWidth="1"/>
     <col min="5" max="25" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="43" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="53" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="43" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="53" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6.75" style="1" customWidth="1"/>
     <col min="56" max="60" width="5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" style="1" customWidth="1"/>
-    <col min="62" max="16384" width="11.5703125" style="1"/>
+    <col min="61" max="61" width="11.75" style="1" customWidth="1"/>
+    <col min="62" max="16384" width="11.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="263"/>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
+    <row r="1" spans="1:62">
+      <c r="A1" s="262"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
       <c r="D1" s="125"/>
       <c r="E1" s="125"/>
       <c r="F1" s="125"/>
@@ -15901,34 +15916,34 @@
       <c r="BI1" s="38"/>
       <c r="BJ1" s="39"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="265"/>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
+    <row r="2" spans="1:62" ht="15">
+      <c r="A2" s="264"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
       <c r="D2"/>
-      <c r="E2" s="200" t="str">
+      <c r="E2" s="253" t="str">
         <f>IF(General!D5="","",General!D5)</f>
         <v>Ponderaciones</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -15960,52 +15975,52 @@
       <c r="BA2"/>
       <c r="BJ2" s="40"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="str">
+    <row r="3" spans="1:62" ht="15">
+      <c r="A3" s="168" t="str">
         <f>IF(General!A5="","",General!A5)</f>
         <v>Grupo:</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="164" t="str">
+      <c r="B3" s="169"/>
+      <c r="C3" s="163" t="str">
         <f>IF(General!C5="","",General!C5)</f>
         <v>2A</v>
       </c>
       <c r="D3"/>
-      <c r="E3" s="201" t="str">
+      <c r="E3" s="254" t="str">
         <f>IF(General!D6="","",General!D6)</f>
         <v>Asistencia</v>
       </c>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201" t="str">
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254" t="str">
         <f>IF(General!E6="","",General!E6)</f>
         <v>Actividades</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201" t="str">
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254" t="str">
         <f>IF(General!F6="","",General!F6)</f>
         <v>Evidencias</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
-      <c r="Q3" s="201" t="str">
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254" t="str">
         <f>IF(General!G6="","",General!G6)</f>
         <v>Producto</v>
       </c>
-      <c r="R3" s="201"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="201"/>
-      <c r="U3" s="201" t="str">
+      <c r="R3" s="254"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="254"/>
+      <c r="U3" s="254" t="str">
         <f>IF(General!H6="","",General!H6)</f>
         <v>Examen</v>
       </c>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
+      <c r="V3" s="254"/>
+      <c r="W3" s="254"/>
+      <c r="X3" s="254"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -16037,52 +16052,52 @@
       <c r="BA3"/>
       <c r="BJ3" s="40"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="str">
+    <row r="4" spans="1:62" ht="15">
+      <c r="A4" s="168" t="str">
         <f>IF(General!A6="","",General!A6)</f>
         <v>Asignatura:</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="164" t="str">
+      <c r="B4" s="169"/>
+      <c r="C4" s="163" t="str">
         <f>IF(General!C6="","",General!C6)</f>
         <v>HABILIDADES SOCIALES</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="202">
+      <c r="E4" s="255">
         <f>IF(General!D7="","",General!D7)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="202">
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="255">
         <f>IF(General!E7="","",General!E7)</f>
         <v>0.2</v>
       </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="202">
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="255">
         <f>IF(General!F7="","",General!F7)</f>
         <v>0.2</v>
       </c>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="203"/>
-      <c r="Q4" s="202">
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="255">
         <f>IF(General!G7="","",General!G7)</f>
         <v>0.3</v>
       </c>
-      <c r="R4" s="203"/>
-      <c r="S4" s="203"/>
-      <c r="T4" s="203"/>
-      <c r="U4" s="202">
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="255">
         <f>IF(General!H7="","",General!H7)</f>
         <v>0.3</v>
       </c>
-      <c r="V4" s="203"/>
-      <c r="W4" s="203"/>
-      <c r="X4" s="203"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -16114,13 +16129,13 @@
       <c r="BA4"/>
       <c r="BJ4" s="40"/>
     </row>
-    <row r="5" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="214" t="str">
+    <row r="5" spans="1:62" ht="15.75" thickBot="1">
+      <c r="A5" s="244" t="str">
         <f>IF(General!A7="","",General!A7)</f>
         <v>Docente:</v>
       </c>
-      <c r="B5" s="215"/>
-      <c r="C5" s="164" t="str">
+      <c r="B5" s="245"/>
+      <c r="C5" s="163" t="str">
         <f>IF(General!C7="","",General!C7)</f>
         <v>EVANGELINA REYES AYALA</v>
       </c>
@@ -16176,236 +16191,236 @@
       <c r="BA5"/>
       <c r="BJ5" s="40"/>
     </row>
-    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224" t="s">
+    <row r="6" spans="1:62" ht="40.15" customHeight="1" thickBot="1">
+      <c r="A6" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="224" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="224" t="s">
+      <c r="B6" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="237" t="s">
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="210"/>
+      <c r="W6" s="210"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="238"/>
-      <c r="AB6" s="238"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="238"/>
-      <c r="AE6" s="238"/>
-      <c r="AF6" s="238"/>
-      <c r="AG6" s="238"/>
-      <c r="AH6" s="238"/>
-      <c r="AI6" s="238"/>
-      <c r="AJ6" s="238"/>
-      <c r="AK6" s="238"/>
-      <c r="AL6" s="238"/>
-      <c r="AM6" s="238"/>
-      <c r="AN6" s="238"/>
-      <c r="AO6" s="238"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="239"/>
-      <c r="AR6" s="240" t="s">
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="218"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="218"/>
+      <c r="AE6" s="218"/>
+      <c r="AF6" s="218"/>
+      <c r="AG6" s="218"/>
+      <c r="AH6" s="218"/>
+      <c r="AI6" s="218"/>
+      <c r="AJ6" s="218"/>
+      <c r="AK6" s="218"/>
+      <c r="AL6" s="218"/>
+      <c r="AM6" s="218"/>
+      <c r="AN6" s="218"/>
+      <c r="AO6" s="218"/>
+      <c r="AP6" s="218"/>
+      <c r="AQ6" s="219"/>
+      <c r="AR6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="241"/>
-      <c r="AT6" s="241"/>
-      <c r="AU6" s="241"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="241"/>
-      <c r="AX6" s="241"/>
-      <c r="AY6" s="241"/>
-      <c r="AZ6" s="241"/>
-      <c r="BA6" s="242"/>
-      <c r="BB6" s="227" t="s">
+      <c r="AS6" s="221"/>
+      <c r="AT6" s="221"/>
+      <c r="AU6" s="221"/>
+      <c r="AV6" s="221"/>
+      <c r="AW6" s="221"/>
+      <c r="AX6" s="221"/>
+      <c r="AY6" s="221"/>
+      <c r="AZ6" s="221"/>
+      <c r="BA6" s="222"/>
+      <c r="BB6" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="BC6" s="234" t="s">
+      <c r="BC6" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="BD6" s="243" t="str">
+      <c r="BD6" s="223" t="str">
         <f>CONCATENATE(General!$D$6, ": ", General!$D$7*100, " %")</f>
         <v>Asistencia: 0 %</v>
       </c>
-      <c r="BE6" s="246" t="str">
+      <c r="BE6" s="226" t="str">
         <f>CONCATENATE(General!$E$6, ": ", General!$E$7*100, " %")</f>
         <v>Actividades: 20 %</v>
       </c>
-      <c r="BF6" s="249" t="str">
+      <c r="BF6" s="229" t="str">
         <f>CONCATENATE(General!$F$6, ": ", General!$F$7*100, " %")</f>
         <v>Evidencias: 20 %</v>
       </c>
-      <c r="BG6" s="227" t="str">
+      <c r="BG6" s="232" t="str">
         <f>CONCATENATE(General!$G$6, ": ", General!$G$7*100, " %")</f>
         <v>Producto: 30 %</v>
       </c>
-      <c r="BH6" s="234" t="str">
+      <c r="BH6" s="214" t="str">
         <f>CONCATENATE(General!$H$6, ": ", General!$H$7*100, " %")</f>
         <v>Examen: 30 %</v>
       </c>
-      <c r="BI6" s="204" t="s">
+      <c r="BI6" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="BJ6" s="197" t="s">
+      <c r="BJ6" s="250" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" s="225"/>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="254" t="s">
+    <row r="7" spans="1:62">
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="256"/>
-      <c r="Z7" s="252"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="216"/>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="216"/>
-      <c r="AJ7" s="216"/>
-      <c r="AK7" s="216"/>
-      <c r="AL7" s="216"/>
-      <c r="AM7" s="216"/>
-      <c r="AN7" s="216"/>
-      <c r="AO7" s="216"/>
-      <c r="AP7" s="216"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="222"/>
-      <c r="AS7" s="207"/>
-      <c r="AT7" s="207"/>
-      <c r="AU7" s="207"/>
-      <c r="AV7" s="207"/>
-      <c r="AW7" s="207"/>
-      <c r="AX7" s="207"/>
-      <c r="AY7" s="207"/>
-      <c r="AZ7" s="207"/>
-      <c r="BA7" s="209"/>
-      <c r="BB7" s="228"/>
-      <c r="BC7" s="235"/>
-      <c r="BD7" s="244"/>
-      <c r="BE7" s="247"/>
-      <c r="BF7" s="250"/>
-      <c r="BG7" s="228"/>
-      <c r="BH7" s="235"/>
-      <c r="BI7" s="205"/>
-      <c r="BJ7" s="198"/>
-    </row>
-    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="226"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="259"/>
-      <c r="Z8" s="253"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="217"/>
-      <c r="AF8" s="217"/>
-      <c r="AG8" s="217"/>
-      <c r="AH8" s="217"/>
-      <c r="AI8" s="217"/>
-      <c r="AJ8" s="217"/>
-      <c r="AK8" s="217"/>
-      <c r="AL8" s="217"/>
-      <c r="AM8" s="217"/>
-      <c r="AN8" s="217"/>
-      <c r="AO8" s="217"/>
-      <c r="AP8" s="217"/>
-      <c r="AQ8" s="231"/>
-      <c r="AR8" s="223"/>
-      <c r="AS8" s="208"/>
-      <c r="AT8" s="208"/>
-      <c r="AU8" s="208"/>
-      <c r="AV8" s="208"/>
-      <c r="AW8" s="208"/>
-      <c r="AX8" s="208"/>
-      <c r="AY8" s="208"/>
-      <c r="AZ8" s="208"/>
-      <c r="BA8" s="210"/>
-      <c r="BB8" s="229"/>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="245"/>
-      <c r="BE8" s="248"/>
-      <c r="BF8" s="251"/>
-      <c r="BG8" s="229"/>
-      <c r="BH8" s="236"/>
-      <c r="BI8" s="206"/>
-      <c r="BJ8" s="199"/>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="X7" s="204"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="199"/>
+      <c r="AJ7" s="199"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="199"/>
+      <c r="AM7" s="199"/>
+      <c r="AN7" s="199"/>
+      <c r="AO7" s="199"/>
+      <c r="AP7" s="199"/>
+      <c r="AQ7" s="239"/>
+      <c r="AR7" s="248"/>
+      <c r="AS7" s="237"/>
+      <c r="AT7" s="237"/>
+      <c r="AU7" s="237"/>
+      <c r="AV7" s="237"/>
+      <c r="AW7" s="237"/>
+      <c r="AX7" s="237"/>
+      <c r="AY7" s="237"/>
+      <c r="AZ7" s="237"/>
+      <c r="BA7" s="260"/>
+      <c r="BB7" s="233"/>
+      <c r="BC7" s="215"/>
+      <c r="BD7" s="224"/>
+      <c r="BE7" s="227"/>
+      <c r="BF7" s="230"/>
+      <c r="BG7" s="233"/>
+      <c r="BH7" s="215"/>
+      <c r="BI7" s="258"/>
+      <c r="BJ7" s="251"/>
+    </row>
+    <row r="8" spans="1:62" ht="35.450000000000003" customHeight="1" thickBot="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="207"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="240"/>
+      <c r="AR8" s="249"/>
+      <c r="AS8" s="238"/>
+      <c r="AT8" s="238"/>
+      <c r="AU8" s="238"/>
+      <c r="AV8" s="238"/>
+      <c r="AW8" s="238"/>
+      <c r="AX8" s="238"/>
+      <c r="AY8" s="238"/>
+      <c r="AZ8" s="238"/>
+      <c r="BA8" s="261"/>
+      <c r="BB8" s="234"/>
+      <c r="BC8" s="216"/>
+      <c r="BD8" s="225"/>
+      <c r="BE8" s="228"/>
+      <c r="BF8" s="231"/>
+      <c r="BG8" s="234"/>
+      <c r="BH8" s="216"/>
+      <c r="BI8" s="259"/>
+      <c r="BJ8" s="252"/>
+    </row>
+    <row r="9" spans="1:62" ht="15">
       <c r="A9" s="123">
         <f>IF(General!A10="","",General!A10)</f>
         <v>1</v>
@@ -16490,16 +16505,16 @@
         <f>IFERROR(AVERAGE($BC9) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI9" s="160">
+      <c r="BI9" s="159">
         <f>SUM(BD9:BH9)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="165" t="str">
+      <c r="BJ9" s="164" t="str">
         <f>IF(ISERROR(COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0))),"",COUNTIF($D9:$Y9,1)/(COUNTIF($D9:$Y9,1)+COUNTIF($D9:$Y9,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="15">
       <c r="A10" s="26">
         <f>IF(General!A11="","",General!A11)</f>
         <v>2</v>
@@ -16584,16 +16599,16 @@
         <f>IFERROR(AVERAGE($BC10) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI10" s="161">
+      <c r="BI10" s="160">
         <f t="shared" ref="BI10:BI53" si="0">SUM(BD10:BH10)</f>
         <v>0</v>
       </c>
-      <c r="BJ10" s="166" t="str">
+      <c r="BJ10" s="165" t="str">
         <f t="shared" ref="BJ10:BJ53" si="1">IF(ISERROR(COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0))),"",COUNTIF($D10:$Y10,1)/(COUNTIF($D10:$Y10,1)+COUNTIF($D10:$Y10,0)))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="15">
       <c r="A11" s="26">
         <f>IF(General!A12="","",General!A12)</f>
         <v>3</v>
@@ -16678,16 +16693,16 @@
         <f>IFERROR(AVERAGE($BC11) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI11" s="161">
+      <c r="BI11" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ11" s="166" t="str">
+      <c r="BJ11" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="15">
       <c r="A12" s="26">
         <f>IF(General!A13="","",General!A13)</f>
         <v>4</v>
@@ -16772,16 +16787,16 @@
         <f>IFERROR(AVERAGE($BC12) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI12" s="161">
+      <c r="BI12" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ12" s="166" t="str">
+      <c r="BJ12" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" ht="15.75" thickBot="1">
       <c r="A13" s="29">
         <f>IF(General!A14="","",General!A14)</f>
         <v>5</v>
@@ -16866,16 +16881,16 @@
         <f>IFERROR(AVERAGE($BC13) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI13" s="162">
+      <c r="BI13" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ13" s="168" t="str">
+      <c r="BJ13" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" ht="15.75" thickTop="1">
       <c r="A14" s="124">
         <f>IF(General!A15="","",General!A15)</f>
         <v>6</v>
@@ -16960,16 +16975,16 @@
         <f>IFERROR(AVERAGE($BC14) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI14" s="160">
+      <c r="BI14" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ14" s="165" t="str">
+      <c r="BJ14" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" ht="15">
       <c r="A15" s="26">
         <f>IF(General!A16="","",General!A16)</f>
         <v>7</v>
@@ -17054,16 +17069,16 @@
         <f>IFERROR(AVERAGE($BC15) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI15" s="161">
+      <c r="BI15" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ15" s="166" t="str">
+      <c r="BJ15" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15">
       <c r="A16" s="26">
         <f>IF(General!A17="","",General!A17)</f>
         <v>8</v>
@@ -17148,16 +17163,16 @@
         <f>IFERROR(AVERAGE($BC16) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI16" s="161">
+      <c r="BI16" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ16" s="166" t="str">
+      <c r="BJ16" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" ht="15">
       <c r="A17" s="26">
         <f>IF(General!A18="","",General!A18)</f>
         <v>9</v>
@@ -17242,16 +17257,16 @@
         <f>IFERROR(AVERAGE($BC17) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI17" s="161">
+      <c r="BI17" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ17" s="166" t="str">
+      <c r="BJ17" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" ht="15.75" thickBot="1">
       <c r="A18" s="29">
         <f>IF(General!A19="","",General!A19)</f>
         <v>10</v>
@@ -17336,16 +17351,16 @@
         <f>IFERROR(AVERAGE($BC18) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI18" s="162">
+      <c r="BI18" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ18" s="168" t="str">
+      <c r="BJ18" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" ht="15.75" thickTop="1">
       <c r="A19" s="124">
         <f>IF(General!A20="","",General!A20)</f>
         <v>11</v>
@@ -17430,16 +17445,16 @@
         <f>IFERROR(AVERAGE($BC19) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI19" s="160">
+      <c r="BI19" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ19" s="165" t="str">
+      <c r="BJ19" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" ht="15">
       <c r="A20" s="26">
         <f>IF(General!A21="","",General!A21)</f>
         <v>12</v>
@@ -17524,16 +17539,16 @@
         <f>IFERROR(AVERAGE($BC20) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI20" s="161">
+      <c r="BI20" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ20" s="166" t="str">
+      <c r="BJ20" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="15">
       <c r="A21" s="26">
         <f>IF(General!A22="","",General!A22)</f>
         <v>13</v>
@@ -17618,16 +17633,16 @@
         <f>IFERROR(AVERAGE($BC21) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI21" s="161">
+      <c r="BI21" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ21" s="166" t="str">
+      <c r="BJ21" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="15">
       <c r="A22" s="26">
         <f>IF(General!A23="","",General!A23)</f>
         <v>14</v>
@@ -17712,16 +17727,16 @@
         <f>IFERROR(AVERAGE($BC22) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI22" s="161">
+      <c r="BI22" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ22" s="166" t="str">
+      <c r="BJ22" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="15.75" thickBot="1">
       <c r="A23" s="29">
         <f>IF(General!A24="","",General!A24)</f>
         <v>15</v>
@@ -17806,16 +17821,16 @@
         <f>IFERROR(AVERAGE($BC23) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI23" s="162">
+      <c r="BI23" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ23" s="168" t="str">
+      <c r="BJ23" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="15.75" thickTop="1">
       <c r="A24" s="124">
         <f>IF(General!A25="","",General!A25)</f>
         <v>16</v>
@@ -17900,16 +17915,16 @@
         <f>IFERROR(AVERAGE($BC24) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI24" s="160">
+      <c r="BI24" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ24" s="165" t="str">
+      <c r="BJ24" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="15">
       <c r="A25" s="26">
         <f>IF(General!A26="","",General!A26)</f>
         <v>17</v>
@@ -17994,16 +18009,16 @@
         <f>IFERROR(AVERAGE($BC25) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI25" s="161">
+      <c r="BI25" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ25" s="166" t="str">
+      <c r="BJ25" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="15">
       <c r="A26" s="26">
         <f>IF(General!A27="","",General!A27)</f>
         <v>18</v>
@@ -18088,16 +18103,16 @@
         <f>IFERROR(AVERAGE($BC26) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI26" s="161">
+      <c r="BI26" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ26" s="166" t="str">
+      <c r="BJ26" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="15">
       <c r="A27" s="26">
         <f>IF(General!A28="","",General!A28)</f>
         <v>19</v>
@@ -18182,16 +18197,16 @@
         <f>IFERROR(AVERAGE($BC27) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI27" s="161">
+      <c r="BI27" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ27" s="166" t="str">
+      <c r="BJ27" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" ht="15.75" thickBot="1">
       <c r="A28" s="29">
         <f>IF(General!A29="","",General!A29)</f>
         <v>20</v>
@@ -18276,16 +18291,16 @@
         <f>IFERROR(AVERAGE($BC28) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI28" s="162">
+      <c r="BI28" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ28" s="168" t="str">
+      <c r="BJ28" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="15.75" thickTop="1">
       <c r="A29" s="124">
         <f>IF(General!A30="","",General!A30)</f>
         <v>21</v>
@@ -18370,16 +18385,16 @@
         <f>IFERROR(AVERAGE($BC29) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI29" s="160">
+      <c r="BI29" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="165" t="str">
+      <c r="BJ29" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="15">
       <c r="A30" s="26">
         <f>IF(General!A31="","",General!A31)</f>
         <v>22</v>
@@ -18464,16 +18479,16 @@
         <f>IFERROR(AVERAGE($BC30) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI30" s="161">
+      <c r="BI30" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="166" t="str">
+      <c r="BJ30" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" ht="15">
       <c r="A31" s="26">
         <f>IF(General!A32="","",General!A32)</f>
         <v>23</v>
@@ -18558,16 +18573,16 @@
         <f>IFERROR(AVERAGE($BC31) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI31" s="161">
+      <c r="BI31" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ31" s="166" t="str">
+      <c r="BJ31" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" ht="15">
       <c r="A32" s="26">
         <f>IF(General!A33="","",General!A33)</f>
         <v>24</v>
@@ -18652,16 +18667,16 @@
         <f>IFERROR(AVERAGE($BC32) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI32" s="161">
+      <c r="BI32" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ32" s="166" t="str">
+      <c r="BJ32" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:62" ht="15.75" thickBot="1">
       <c r="A33" s="29">
         <f>IF(General!A34="","",General!A34)</f>
         <v>25</v>
@@ -18746,16 +18761,16 @@
         <f>IFERROR(AVERAGE($BC33) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI33" s="162">
+      <c r="BI33" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ33" s="168" t="str">
+      <c r="BJ33" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" ht="15.75" thickTop="1">
       <c r="A34" s="124">
         <f>IF(General!A35="","",General!A35)</f>
         <v>26</v>
@@ -18840,16 +18855,16 @@
         <f>IFERROR(AVERAGE($BC34) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI34" s="160">
+      <c r="BI34" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ34" s="165" t="str">
+      <c r="BJ34" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" ht="15">
       <c r="A35" s="26">
         <f>IF(General!A36="","",General!A36)</f>
         <v>27</v>
@@ -18934,16 +18949,16 @@
         <f>IFERROR(AVERAGE($BC35) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI35" s="161">
+      <c r="BI35" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ35" s="166" t="str">
+      <c r="BJ35" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" ht="15">
       <c r="A36" s="26">
         <f>IF(General!A37="","",General!A37)</f>
         <v>28</v>
@@ -19028,16 +19043,16 @@
         <f>IFERROR(AVERAGE($BC36) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI36" s="161">
+      <c r="BI36" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ36" s="166" t="str">
+      <c r="BJ36" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" ht="15">
       <c r="A37" s="26">
         <f>IF(General!A38="","",General!A38)</f>
         <v>29</v>
@@ -19122,16 +19137,16 @@
         <f>IFERROR(AVERAGE($BC37) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI37" s="161">
+      <c r="BI37" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ37" s="166" t="str">
+      <c r="BJ37" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:62" ht="15.75" thickBot="1">
       <c r="A38" s="29">
         <f>IF(General!A39="","",General!A39)</f>
         <v>30</v>
@@ -19216,16 +19231,16 @@
         <f>IFERROR(AVERAGE($BC38) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI38" s="162">
+      <c r="BI38" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ38" s="168" t="str">
+      <c r="BJ38" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" ht="15.75" thickTop="1">
       <c r="A39" s="124">
         <f>IF(General!A40="","",General!A40)</f>
         <v>31</v>
@@ -19310,16 +19325,16 @@
         <f>IFERROR(AVERAGE($BC39) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI39" s="160">
+      <c r="BI39" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ39" s="165" t="str">
+      <c r="BJ39" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" ht="15">
       <c r="A40" s="26">
         <f>IF(General!A41="","",General!A41)</f>
         <v>32</v>
@@ -19404,16 +19419,16 @@
         <f>IFERROR(AVERAGE($BC40) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI40" s="161">
+      <c r="BI40" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ40" s="166" t="str">
+      <c r="BJ40" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" ht="15">
       <c r="A41" s="26">
         <f>IF(General!A42="","",General!A42)</f>
         <v>33</v>
@@ -19498,16 +19513,16 @@
         <f>IFERROR(AVERAGE($BC41) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI41" s="161">
+      <c r="BI41" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ41" s="166" t="str">
+      <c r="BJ41" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" ht="15">
       <c r="A42" s="26">
         <f>IF(General!A43="","",General!A43)</f>
         <v>34</v>
@@ -19592,16 +19607,16 @@
         <f>IFERROR(AVERAGE($BC42) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI42" s="161">
+      <c r="BI42" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ42" s="166" t="str">
+      <c r="BJ42" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:62" ht="15.75" thickBot="1">
       <c r="A43" s="29">
         <f>IF(General!A44="","",General!A44)</f>
         <v>35</v>
@@ -19686,16 +19701,16 @@
         <f>IFERROR(AVERAGE($BC43) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI43" s="162">
+      <c r="BI43" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ43" s="168" t="str">
+      <c r="BJ43" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" ht="15.75" thickTop="1">
       <c r="A44" s="124">
         <f>IF(General!A45="","",General!A45)</f>
         <v>36</v>
@@ -19780,16 +19795,16 @@
         <f>IFERROR(AVERAGE($BC44) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI44" s="160">
+      <c r="BI44" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ44" s="165" t="str">
+      <c r="BJ44" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" ht="15">
       <c r="A45" s="26">
         <f>IF(General!A46="","",General!A46)</f>
         <v>37</v>
@@ -19874,16 +19889,16 @@
         <f>IFERROR(AVERAGE($BC45) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI45" s="161">
+      <c r="BI45" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ45" s="166" t="str">
+      <c r="BJ45" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" ht="15">
       <c r="A46" s="26">
         <f>IF(General!A47="","",General!A47)</f>
         <v>38</v>
@@ -19968,16 +19983,16 @@
         <f>IFERROR(AVERAGE($BC46) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI46" s="161">
+      <c r="BI46" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ46" s="166" t="str">
+      <c r="BJ46" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" ht="15">
       <c r="A47" s="26" t="str">
         <f>IF(General!A48="","",General!A48)</f>
         <v/>
@@ -20062,16 +20077,16 @@
         <f>IFERROR(AVERAGE($BC47) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI47" s="161">
+      <c r="BI47" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ47" s="166" t="str">
+      <c r="BJ47" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:62" ht="15.75" thickBot="1">
       <c r="A48" s="29" t="str">
         <f>IF(General!A49="","",General!A49)</f>
         <v/>
@@ -20156,16 +20171,16 @@
         <f>IFERROR(AVERAGE($BC48) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI48" s="162">
+      <c r="BI48" s="161">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ48" s="168" t="str">
+      <c r="BJ48" s="167" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" ht="15.75" thickTop="1">
       <c r="A49" s="22" t="str">
         <f>IF(General!A50="","",General!A50)</f>
         <v/>
@@ -20250,16 +20265,16 @@
         <f>IFERROR(AVERAGE($BC49) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI49" s="160">
+      <c r="BI49" s="159">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ49" s="165" t="str">
+      <c r="BJ49" s="164" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" ht="15">
       <c r="A50" s="26" t="str">
         <f>IF(General!A51="","",General!A51)</f>
         <v/>
@@ -20344,16 +20359,16 @@
         <f>IFERROR(AVERAGE($BC50) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI50" s="161">
+      <c r="BI50" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ50" s="166" t="str">
+      <c r="BJ50" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" ht="15">
       <c r="A51" s="26" t="str">
         <f>IF(General!A52="","",General!A52)</f>
         <v/>
@@ -20438,16 +20453,16 @@
         <f>IFERROR(AVERAGE($BC51) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI51" s="161">
+      <c r="BI51" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ51" s="166" t="str">
+      <c r="BJ51" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" ht="15">
       <c r="A52" s="26" t="str">
         <f>IF(General!A53="","",General!A53)</f>
         <v/>
@@ -20532,16 +20547,16 @@
         <f>IFERROR(AVERAGE($BC52) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI52" s="161">
+      <c r="BI52" s="160">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ52" s="166" t="str">
+      <c r="BJ52" s="165" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:62" ht="15.75" thickBot="1">
       <c r="A53" s="34" t="str">
         <f>IF(General!A54="","",General!A54)</f>
         <v/>
@@ -20626,16 +20641,16 @@
         <f>IFERROR(AVERAGE($BC53) * General!$H$7, "")</f>
         <v/>
       </c>
-      <c r="BI53" s="163">
+      <c r="BI53" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BJ53" s="167" t="str">
+      <c r="BJ53" s="166" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62">
       <c r="A54" s="1" t="str">
         <f>IF(General!A55="","",General!A55)</f>
         <v/>
@@ -20651,20 +20666,54 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E2:X2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="BJ6:BJ8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="BG6:BG8"/>
+    <mergeCell ref="BH6:BH8"/>
+    <mergeCell ref="BI6:BI8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB6:BB8"/>
+    <mergeCell ref="BC6:BC8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="W7:Y8"/>
+    <mergeCell ref="BD6:BD8"/>
+    <mergeCell ref="BE6:BE8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="BF6:BF8"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AV7:AV8"/>
+    <mergeCell ref="AW7:AW8"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="AZ7:AZ8"/>
+    <mergeCell ref="BA7:BA8"/>
+    <mergeCell ref="Z6:AQ6"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="Z7:Z8"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
@@ -20681,54 +20730,20 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="BD6:BD8"/>
-    <mergeCell ref="BE6:BE8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="BF6:BF8"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AU7:AU8"/>
-    <mergeCell ref="AV7:AV8"/>
-    <mergeCell ref="AW7:AW8"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="Z6:AQ6"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BB6:BB8"/>
-    <mergeCell ref="BC6:BC8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="W7:Y8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="AP7:AP8"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BH6:BH8"/>
-    <mergeCell ref="BI6:BI8"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Fecha" prompt="Escribe la fecha con este formato: 01-01-2025" sqref="D7:V8" xr:uid="{3DA3D6E9-CE42-4FEF-BEE3-6AF37021FD3E}"/>
